--- a/biology/Médecine/Petit_foramen_palatin/Petit_foramen_palatin.xlsx
+++ b/biology/Médecine/Petit_foramen_palatin/Petit_foramen_palatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les petits foramens palatins (ou trous palatins accessoires) sont les ouvertures inférieures des canaux petits palatins.
 Ils sont situés derrière le foramen grand palatin sur le processus pyramidal de l'os palatin.
